--- a/TNR_PREJDD/PREJDD.RO.ADR.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ADR.xlsx
@@ -198,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -219,6 +219,12 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -291,6 +297,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1608,210 +1615,210 @@
       <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>68100.0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10">
+      <c r="I2" s="10"/>
+      <c r="J2" s="11">
         <v>0.0</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>0.0</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="11">
         <v>0.0</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>0.0</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="11">
         <v>0.0</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="11">
         <v>0.0</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="11">
         <v>0.0</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="11">
         <v>0.0</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="11">
         <v>0.0</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="12">
         <v>9.0</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10" t="s">
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -3262,54 +3269,54 @@
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RO.ADR.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ADR.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="420" yWindow="540" windowWidth="21852" windowHeight="7884" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="001" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="MODELE" sheetId="3" r:id="rId6"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="001" sheetId="2" r:id="rId2"/>
+    <sheet name="MODELE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhaP3axDS7fYJ7AVNec9OF1FB7yeA=="/>
@@ -194,36 +197,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -233,7 +236,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,7 +264,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -275,62 +284,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -520,31 +514,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="21.38"/>
-    <col customWidth="1" min="3" max="3" width="69.5"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="69.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -581,20 +575,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1580,35 +1574,33 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="11.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1706,12 +1698,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="9">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>43</v>
@@ -1720,7 +1712,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="10">
-        <v>68100.0</v>
+        <v>68100</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>45</v>
@@ -1733,10 +1725,10 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>48</v>
@@ -1747,25 +1739,25 @@
         <v>48</v>
       </c>
       <c r="P2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>48</v>
@@ -1774,7 +1766,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>50</v>
@@ -1796,13 +1788,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:32" ht="15.75" customHeight="1">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1811,655 +1803,655 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -3237,35 +3229,33 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="20.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3297,667 +3287,667 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4735,9 +4725,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_PREJDD/PREJDD.RO.ADR.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ADR.xlsx
@@ -1,17 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="420" yWindow="540" windowWidth="21852" windowHeight="7884" activeTab="1"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="001" sheetId="2" r:id="rId2"/>
-    <sheet name="MODELE" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="001" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="MODELE" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhaP3axDS7fYJ7AVNec9OF1FB7yeA=="/>
@@ -197,36 +194,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -236,7 +233,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -264,13 +261,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -284,47 +275,62 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -514,31 +520,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="69.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="21.38"/>
+    <col customWidth="1" min="3" max="3" width="69.5"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="6" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -575,20 +581,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1574,33 +1580,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="30.0"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1698,12 +1706,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="9">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>43</v>
@@ -1712,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="10">
-        <v>68100</v>
+        <v>68100.0</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>45</v>
@@ -1725,10 +1733,10 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>48</v>
@@ -1739,25 +1747,25 @@
         <v>48</v>
       </c>
       <c r="P2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V2" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>48</v>
@@ -1766,7 +1774,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="12">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>50</v>
@@ -1788,13 +1796,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1803,655 +1811,655 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -3229,33 +3237,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="30.0"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3287,667 +3297,667 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4725,7 +4735,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_PREJDD/PREJDD.RO.ADR.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ADR.xlsx
@@ -10,15 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhaP3axDS7fYJ7AVNec9OF1FB7yeA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="guuC9ubko4lVdvPdCOfZfY7WB7bx7DnFm8Ye2cj+ZVw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>TNR</t>
+  </si>
+  <si>
+    <t>$NULL</t>
   </si>
   <si>
     <t>$DATETIMESYS</t>
@@ -1788,11 +1791,13 @@
       <c r="AC2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="11"/>
+      <c r="AD2" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="AE2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3267,10 +3272,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
